--- a/data/income_statement/2digits/size/52_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/52_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>52-Warehousing and support activities for transportation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>52-Warehousing and support activities for transportation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1127 +841,1272 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1576831.22418</v>
+        <v>1664946.61799</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1832692.87712</v>
+        <v>1939607.74302</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2230232.14057</v>
+        <v>2340797.5966</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2363170.30218</v>
+        <v>2496588.71906</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2892359.23717</v>
+        <v>3059703.88265</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2948690.01131</v>
+        <v>3147532.25584</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2939204.80849</v>
+        <v>3197452.15651</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3133076.38563</v>
+        <v>3376774.95877</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3351943.83122</v>
+        <v>3635795.83899</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7393677.119870001</v>
+        <v>7766670.16652</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8084922.53577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8894207.94015</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9526011.060000001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1296770.4847</v>
+        <v>1363711.21736</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1507575.97401</v>
+        <v>1596646.51753</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1805833.41653</v>
+        <v>1894275.83412</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1870981.17954</v>
+        <v>1986088.70357</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2216748.86667</v>
+        <v>2359335.22805</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2270360.33148</v>
+        <v>2432306.11042</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2248645.23416</v>
+        <v>2466844.43048</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2397213.3163</v>
+        <v>2595573.61137</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2398292.76521</v>
+        <v>2644925.24141</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5149587.31262</v>
+        <v>5427068.87904</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5660600.24737</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6176208.15552</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6291603.069</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>225234.39203</v>
+        <v>240184.27382</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>261758.75449</v>
+        <v>274405.54952</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>349639.41958</v>
+        <v>364634.2910800001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>407437.51893</v>
+        <v>421207.68481</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>560462.73145</v>
+        <v>577771.6170900001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>548540.02192</v>
+        <v>576263.7950500001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>542876.04811</v>
+        <v>569103.36488</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>579717.50087</v>
+        <v>606358.17842</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>792669.1440399999</v>
+        <v>811200.51136</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1995338.20934</v>
+        <v>2065870.65901</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2101448.41778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2365778.63875</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2926146.369</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>54826.34745</v>
+        <v>61051.12681</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>63358.14862000001</v>
+        <v>68555.67597</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>74759.30446</v>
+        <v>81887.47140000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>84751.60371000001</v>
+        <v>89292.33068000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>115147.63905</v>
+        <v>122597.03751</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>129789.65791</v>
+        <v>138962.35037</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>147683.52622</v>
+        <v>161504.36115</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>156145.56846</v>
+        <v>174843.16898</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>160981.92197</v>
+        <v>179670.08622</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>248751.59791</v>
+        <v>273730.6284700001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>322873.87062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>352221.14588</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>308261.622</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3816.78477</v>
+        <v>4261.63788</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5780.27036</v>
+        <v>6673.851279999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>7224.487450000001</v>
+        <v>8872.313630000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>7021.59976</v>
+        <v>7498.29226</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>8551.08518</v>
+        <v>8928.740860000002</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>10941.70236</v>
+        <v>12245.2062</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>7604.071029999999</v>
+        <v>13850.26322</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6157.92617</v>
+        <v>13204.14475</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>4977.24324</v>
+        <v>19216.60189</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>20672.15332</v>
+        <v>21993.33176</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>41989.76641999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>44530.04232</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>73306.473</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3120.69852</v>
+        <v>3489.60908</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2698.34704</v>
+        <v>3122.95709</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5168.23382</v>
+        <v>6692.45435</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5199.693060000001</v>
+        <v>5585.481</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6315.263220000001</v>
+        <v>6585.5572</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7923.57703</v>
+        <v>8083.44437</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4684.40386</v>
+        <v>10884.64289</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4624.81419</v>
+        <v>11141.63724</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>4362.29335</v>
+        <v>18471.2097</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>15597.3005</v>
+        <v>16372.59327</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>36593.64306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>38341.58164</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>68104.242</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>508.41547</v>
+        <v>558.45965</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>306.39507</v>
+        <v>321.76572</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>478.61787</v>
+        <v>601.09166</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>434.9789</v>
+        <v>509.92211</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1066.29145</v>
+        <v>1167.92991</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>512.50852</v>
+        <v>539.40124</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>313.12704</v>
+        <v>342.77829</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>258.72079</v>
+        <v>552.2349300000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>217.9931</v>
+        <v>267.17295</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>986.15475</v>
+        <v>1513.44809</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1078.8976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1711.34531</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1327.805</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>187.67078</v>
+        <v>213.56915</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2775.52825</v>
+        <v>3229.12847</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1577.63576</v>
+        <v>1578.76762</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1386.9278</v>
+        <v>1402.88915</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1169.53051</v>
+        <v>1175.25375</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2505.61681</v>
+        <v>3622.36059</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2606.54013</v>
+        <v>2622.84204</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1274.39119</v>
+        <v>1510.27258</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>396.95679</v>
+        <v>478.21924</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4088.69807</v>
+        <v>4107.2904</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4317.225759999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4477.11537</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3874.426</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1573014.43941</v>
+        <v>1660684.98011</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1826912.60676</v>
+        <v>1932933.89174</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2223007.65312</v>
+        <v>2331925.28297</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2356148.70242</v>
+        <v>2489090.4268</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2883808.15199</v>
+        <v>3050775.14179</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2937748.30895</v>
+        <v>3135287.04964</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2931600.73746</v>
+        <v>3183601.89329</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3126918.45946</v>
+        <v>3363570.81402</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3346966.58798</v>
+        <v>3616579.2371</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7373004.966549999</v>
+        <v>7744676.83476</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8042932.76935</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8849677.89783</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9452704.586999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1195192.88342</v>
+        <v>1254208.84462</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1407026.81767</v>
+        <v>1471586.92559</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1718910.60492</v>
+        <v>1839553.24897</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1828989.38186</v>
+        <v>1921248.31008</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2290115.14737</v>
+        <v>2392831.92547</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2307616.2754</v>
+        <v>2431037.40784</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2298156.46065</v>
+        <v>2480474.07088</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2474008.01682</v>
+        <v>2671247.7575</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2696450.12376</v>
+        <v>2871509.16126</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6133444.79489</v>
+        <v>6449475.34283</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6709007.20551</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7388813.949899999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7939121.651</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>25991.01554</v>
+        <v>28679.51642</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>24807.82098</v>
+        <v>26896.03262</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>28224.57509</v>
+        <v>31333.32722</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>22604.75467</v>
+        <v>25835.59889</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>32124.56632</v>
+        <v>33712.45193</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>37732.11934</v>
+        <v>42759.84385</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>24966.61884</v>
+        <v>29085.70376</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>34957.36877</v>
+        <v>41790.75122</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>14483.81423</v>
+        <v>20787.51209</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>53493.18769</v>
+        <v>64443.94155</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>64582.84651</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>82475.17548999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>94940.36500000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>212149.84985</v>
+        <v>226613.54944</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>294026.20466</v>
+        <v>306654.11325</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>446473.63517</v>
+        <v>461300.8932700001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>346001.51088</v>
+        <v>368933.00759</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>456727.8704</v>
+        <v>484746.20715</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>365479.18987</v>
+        <v>392046.72872</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>347027.311</v>
+        <v>390153.79636</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>357281.71893</v>
+        <v>434869.71452</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>562300.2609499999</v>
+        <v>595748.2020299999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1017072.1197</v>
+        <v>1100286.87819</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1223392.02741</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1441390.68467</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1376450.475</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>950619.04405</v>
+        <v>991847.06575</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1085427.27016</v>
+        <v>1133719.14146</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1240327.32684</v>
+        <v>1342300.75124</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1456756.88292</v>
+        <v>1522573.59449</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1796599.83983</v>
+        <v>1868447.59551</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1894030.76104</v>
+        <v>1982946.0781</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1909197.5698</v>
+        <v>2042646.62016</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2052029.02348</v>
+        <v>2161888.25385</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2102825.44409</v>
+        <v>2236282.640339999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4986902.567910001</v>
+        <v>5205905.452310001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5339711.58467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5776395.33336</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6274354.266</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>6432.973980000001</v>
+        <v>7068.713009999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2765.52187</v>
+        <v>4317.63826</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3885.06782</v>
+        <v>4618.27724</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3626.23339</v>
+        <v>3906.10911</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>4662.87082</v>
+        <v>5925.67088</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>10374.20515</v>
+        <v>13284.75717</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>16964.96101</v>
+        <v>18587.9506</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>29739.90564</v>
+        <v>32699.03791</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>16840.60449</v>
+        <v>18690.8068</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>75976.91959</v>
+        <v>78839.07077999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>81320.74692000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>88552.75637999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>193376.545</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>377821.55599</v>
+        <v>406476.13549</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>419885.78909</v>
+        <v>461346.9661500001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>504097.0482</v>
+        <v>492372.034</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>527159.32056</v>
+        <v>567842.11672</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>593693.00462</v>
+        <v>657943.2163199999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>630132.0335500001</v>
+        <v>704249.6418</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>633444.2768100001</v>
+        <v>703127.8224100001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>652910.44264</v>
+        <v>692323.05652</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>650516.4642200001</v>
+        <v>745070.0758400001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1239560.17166</v>
+        <v>1295201.49193</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1333925.56384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1460863.94793</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1513582.936</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>352375.13811</v>
+        <v>400952.49421</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>375130.51061</v>
+        <v>443718.23607</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>462321.81808</v>
+        <v>539623.1478799999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>507359.80109</v>
+        <v>565710.41761</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>572448.05992</v>
+        <v>694310.0720899999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>611689.0007099999</v>
+        <v>715675.0546800001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>638493.45825</v>
+        <v>752488.0523499999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>679002.5019400001</v>
+        <v>810332.50566</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>659598.69649</v>
+        <v>801098.22914</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1193065.21678</v>
+        <v>1344880.17948</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1330828.24162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1543320.44788</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1523874.726</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>362.21013</v>
+        <v>387.68415</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>220.86011</v>
+        <v>263.1693999999999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>917.79607</v>
+        <v>936.54114</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>915.5443399999999</v>
+        <v>1123.53887</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1741.08592</v>
+        <v>1757.91456</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4134.10333</v>
+        <v>4150.931970000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1722.07973</v>
+        <v>1755.60707</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>3720.90891</v>
+        <v>4068.35771</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>910.30003</v>
+        <v>1131.85611</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1653.88436</v>
+        <v>1677.87418</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1108.89174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1125.72038</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1212.898</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>34431.86683</v>
+        <v>40276.18719</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>34362.9514</v>
+        <v>37124.08932</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>45987.66529</v>
+        <v>53399.73051</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>54907.54392</v>
+        <v>57214.0636</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>69077.16476</v>
+        <v>75400.42228</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>83110.90969</v>
+        <v>92962.62622000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>82320.69098999999</v>
+        <v>86554.87699999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>97356.00284</v>
+        <v>104129.06693</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>87832.61385000001</v>
+        <v>96353.01431</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>159788.87537</v>
+        <v>167298.49399</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>206581.21102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>222901.98701</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>206687.463</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>317581.06115</v>
+        <v>360288.62287</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>340546.6991</v>
+        <v>406330.97735</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>415416.35672</v>
+        <v>485286.87623</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>451536.71283</v>
+        <v>507372.81514</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>501629.80924</v>
+        <v>617151.73525</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>524443.98769</v>
+        <v>618561.49649</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>554450.68753</v>
+        <v>664177.5682800001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>577925.59019</v>
+        <v>702135.0810199999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>570855.78261</v>
+        <v>703613.3587199999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1031622.45705</v>
+        <v>1175903.81131</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1123138.13886</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1319292.74049</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1315974.365</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>25446.41788</v>
+        <v>5523.641280000002</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>44755.27847999999</v>
+        <v>17628.73008</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>41775.23012000001</v>
+        <v>-47251.11388</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>19799.51947</v>
+        <v>2131.699110000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>21244.9447</v>
+        <v>-36366.85576999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>18443.03284</v>
+        <v>-11425.41288</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-5049.181439999999</v>
+        <v>-49360.22994</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-26092.0593</v>
+        <v>-118009.44914</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-9082.23227</v>
+        <v>-56028.1533</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>46494.95488</v>
+        <v>-49678.68755</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3097.32222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-82456.49995</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-10291.79</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>20179.57461</v>
+        <v>183042.88316</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>21514.12444</v>
+        <v>251647.15495</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>28723.25106</v>
+        <v>213295.02771</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>28733.79855</v>
+        <v>239679.85821</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>41431.19071</v>
+        <v>528823.22893</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>37422.20747</v>
+        <v>1152606.91421</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>50040.35463</v>
+        <v>873487.5033099999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>51025.48919</v>
+        <v>745115.68504</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>49845.72147</v>
+        <v>1017375.90645</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>251098.68603</v>
+        <v>1611668.67028</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>163048.46665</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1108549.71508</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2930971.446</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>180.22012</v>
+        <v>362.28843</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>393.94798</v>
+        <v>27828.22683</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>12.10368</v>
+        <v>15.7592</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>951.3885600000001</v>
+        <v>16602.88863</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>414.23625</v>
+        <v>208939.68045</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>357.56925</v>
+        <v>166111.20848</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>131.37746</v>
+        <v>282514.18145</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>90.54725999999999</v>
+        <v>70918.56977000002</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>317.04143</v>
+        <v>46301.68997</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1202.85222</v>
+        <v>74522.71703999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1493.30945</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>97100.6244</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1553708.213</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>21.93</v>
+        <v>29705.11498</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>41.89679</v>
+        <v>33724.77994</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>519.37971</v>
+        <v>44670.14012</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>66.76161999999999</v>
+        <v>81840.3569</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>410.84956</v>
+        <v>90085.98504</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>124.34854</v>
+        <v>124342.71002</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>117.89047</v>
+        <v>171824.23637</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>389.40704</v>
+        <v>212729.84501</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>81.33235000000001</v>
+        <v>524640.77711</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>1107.03294</v>
+        <v>354800.759</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2745.00136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>231476.31192</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>4776.71</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1751.40835</v>
+        <v>20198.90002</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1430.11324</v>
+        <v>13752.15125</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1559.51371</v>
+        <v>13040.24244</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1619.00115</v>
+        <v>11599.73431</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1653.37403</v>
+        <v>22508.7563</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1725.90567</v>
+        <v>30488.72961</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2052.46756</v>
+        <v>41384.78623999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2239.31047</v>
+        <v>35885.25248</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3100.17892</v>
+        <v>39056.98833</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>12852.84349</v>
+        <v>143804.32351</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>13988.20428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>196121.23485</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>126786.867</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1312.97179</v>
+        <v>2089.18677</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>2532.0233</v>
+        <v>3352.32302</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2499.55676</v>
+        <v>2554.96145</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1900.33612</v>
+        <v>2830.79083</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2055.47135</v>
+        <v>4313.158770000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1942.18063</v>
+        <v>3923.91107</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1930.12706</v>
+        <v>2566.88076</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2248.43245</v>
+        <v>4216.392650000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2130.65091</v>
+        <v>4293.65375</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>7129.76612</v>
+        <v>7163.63188</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>6135.06866</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>6698.912729999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>5052.355</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>572.0852600000001</v>
+        <v>582.76325</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>146.57691</v>
+        <v>381.27003</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>399.77486</v>
+        <v>634.76174</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>657.20224</v>
+        <v>722.3651600000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>690.57989</v>
+        <v>803.73842</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>476.11808</v>
+        <v>539.3360699999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>879.1959899999999</v>
+        <v>926.2858100000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>841.86439</v>
+        <v>2202.94593</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2111.2534</v>
+        <v>2564.93425</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1589.56883</v>
+        <v>1837.36</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2399.75988</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2630.15528</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2368.892</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>379.87005</v>
+        <v>1334.63395</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>222.02674</v>
+        <v>21364.45454</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>126.25067</v>
+        <v>2569.48806</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>176.73545</v>
+        <v>5324.51496</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>259.64887</v>
+        <v>10475.99306</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>281.90901</v>
+        <v>457.51442</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>426.18724</v>
+        <v>2543.1588</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>186.78988</v>
+        <v>1550.67633</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>408.19612</v>
+        <v>2131.34247</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>870.3557499999999</v>
+        <v>3308.29791</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>726.2042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>16176.48672</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1406.995</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>7602.940030000001</v>
+        <v>95031.77297000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>9050.037129999999</v>
+        <v>108003.02416</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>13565.13344</v>
+        <v>120334.16973</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>11344.05544</v>
+        <v>101050.83595</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>18956.78188</v>
+        <v>170110.42379</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>16463.81811</v>
+        <v>790115.19329</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>26348.25701</v>
+        <v>339577.80111</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>25522.40638</v>
+        <v>377638.7603</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>18896.48133</v>
+        <v>362784.29239</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>184898.21278</v>
+        <v>960853.47954</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>88507.44011999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>455468.0089199999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1137108.263</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>492.39858</v>
+        <v>495.07825</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>19.80467</v>
+        <v>20.25239</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>5.59696</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>3.52126</v>
+        <v>3.56073</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0</v>
+        <v>71.43617999999999</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>9.771880000000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1.38166</v>
+        <v>46.50651999999999</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>4.87025</v>
@@ -2072,19 +2118,24 @@
         <v>46.23052</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>3.32196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>8.98841</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>58.57791</v>
+        <v>69.82718</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>121.51552</v>
+        <v>147.9396</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>31.64276</v>
@@ -2096,16 +2147,16 @@
         <v>188.0425</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>128.24265</v>
+        <v>140.26442</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>23.03808</v>
+        <v>23.07626</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>35.68036</v>
+        <v>116.28037</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>91.675</v>
+        <v>93.875</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>36.63086</v>
@@ -2113,251 +2164,286 @@
       <c r="M34" s="48" t="n">
         <v>195.04</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>64.607</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7807.17252</v>
+        <v>33173.31736</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7556.18216</v>
+        <v>43072.73319</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>10004.29851</v>
+        <v>29438.26525</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>11952.34197</v>
+        <v>19642.356</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>16802.20638</v>
+        <v>21326.01442</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>15912.34365</v>
+        <v>36478.27495000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>18130.4321</v>
+        <v>32080.58999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>19466.18071</v>
+        <v>39852.09195</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>22695.55128</v>
+        <v>35494.99245000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>41365.19252</v>
+        <v>65295.24002</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>46855.11674</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>102673.95185</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>99690.49400000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>12401.02542</v>
+        <v>58043.96213</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>14887.62204</v>
+        <v>80823.59514</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>17948.90823</v>
+        <v>131952.82855</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>16470.578</v>
+        <v>58651.22934</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>22764.67128</v>
+        <v>231982.71989</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>22818.60587</v>
+        <v>804518.9578599998</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>35323.87903</v>
+        <v>417594.28487</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>29021.32402</v>
+        <v>491683.27525</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>27561.26541</v>
+        <v>510089.86505</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>199225.22455</v>
+        <v>1311925.82758</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>94917.67056999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>791434.6445899999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2237179.239</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>830.98663</v>
+        <v>1101.91515</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1346.82012</v>
+        <v>1437.17848</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>579.8067100000001</v>
+        <v>587.05415</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1152.17463</v>
+        <v>1214.76653</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2291.85997</v>
+        <v>2708.75138</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2126.25973</v>
+        <v>2134.67453</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1950.00262</v>
+        <v>164954.54184</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2689.0447</v>
+        <v>3149.02189</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2056.57882</v>
+        <v>2180.33434</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6522.36339</v>
+        <v>6844.72827</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7975.428940000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>8185.78258</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>6716.492</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>353.76748</v>
+        <v>6142.70127</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>758.9651600000001</v>
+        <v>1505.61855</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>786.379</v>
+        <v>2171.80374</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1239.98994</v>
+        <v>1259.29558</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>700.3777299999999</v>
+        <v>945.18848</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2164.75518</v>
+        <v>2281.58817</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4115.27381</v>
+        <v>5470.62795</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1490.07976</v>
+        <v>2781.49884</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>4252.68485</v>
+        <v>4622.9627</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>5854.50821</v>
+        <v>6827.101159999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4929.687660000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>6022.844800000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>11890.159</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>174.56395</v>
+        <v>267.08199</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>182.27357</v>
+        <v>3283.72479</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>69.29040000000001</v>
+        <v>151.30856</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>102.90678</v>
+        <v>3125.7341</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>513.84624</v>
+        <v>905.4741700000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>206.90622</v>
+        <v>469.7695699999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>18.19427</v>
+        <v>525.01237</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>34.11426</v>
+        <v>107.9785</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>98.45766999999999</v>
+        <v>5782.97651</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>52.90705000000001</v>
+        <v>62.64801</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>18.6058</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>38615.07132</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>687.234</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>7917.30004</v>
+        <v>41187.9536</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>9801.866760000001</v>
+        <v>49693.77821</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>10799.0157</v>
+        <v>88868.46124999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>11131.84531</v>
+        <v>46535.99563</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>16534.0724</v>
+        <v>214376.49797</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>15385.68993</v>
+        <v>764919.24466</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>25264.74543</v>
+        <v>241054.10495</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>19619.41858</v>
+        <v>476974.7402000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>17521.80279</v>
+        <v>490855.49219</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>179314.61226</v>
+        <v>1284679.22232</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>69287.17425</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>722513.77014</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2192092.18</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>62.38616</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>17.11489</v>
+        <v>17.65009</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>7.749</v>
@@ -2369,13 +2455,13 @@
         <v>35.87887</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>96.64282</v>
+        <v>104.75103</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>23.62689</v>
+        <v>32.82884</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>175.0367</v>
+        <v>292.99422</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0.14757</v>
@@ -2384,13 +2470,18 @@
         <v>26.44513</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>0.14112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>158.93497</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>52.721</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>89.99446</v>
@@ -2405,7 +2496,7 @@
         <v>10.7841</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>40.73479</v>
+        <v>40.73502</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>49.42505000000001</v>
@@ -2420,598 +2511,676 @@
         <v>4e-05</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>7.966159999999999</v>
+        <v>7.9662</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2972.0267</v>
+        <v>9191.9295</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2762.60805</v>
+        <v>24867.67153</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>5664.86716</v>
+        <v>40124.65159</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2820.65114</v>
+        <v>6492.427299999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2647.90128</v>
+        <v>12970.194</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2788.92694</v>
+        <v>34559.50485</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3901.08678</v>
+        <v>5506.219690000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5013.629859999999</v>
+        <v>8377.041439999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3631.59367</v>
+        <v>6647.951700000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7446.422350000001</v>
+        <v>13477.71649</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>12706.6328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>15938.24078</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>25740.453</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>11790.96808</v>
+        <v>100823.01062</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>9594.174260000002</v>
+        <v>115615.42796</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>18307.9883</v>
+        <v>174992.11241</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12583.40203</v>
+        <v>85589.37101</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>12034.69101</v>
+        <v>202093.89984</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>11191.50597</v>
+        <v>187712.42537</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>11555.83621</v>
+        <v>226704.32729</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>13364.50016</v>
+        <v>190646.11391</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>13309.47744</v>
+        <v>130791.39759</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>40476.29897</v>
+        <v>280663.69507</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>53765.03281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>319982.54091</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>439615.954</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9737.26273</v>
+        <v>17525.8687</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>7920.82804</v>
+        <v>17802.01539</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>15188.62462</v>
+        <v>25138.09583</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>11188.03799</v>
+        <v>24331.02164</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>11457.27583</v>
+        <v>68778.39753</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>10375.34485</v>
+        <v>74609.09100999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>10952.27173</v>
+        <v>51748.68077</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>12578.07103</v>
+        <v>61946.98731</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>12500.18335</v>
+        <v>101149.85395</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>38106.14581</v>
+        <v>261078.98813</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>51962.62777</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>311139.03228</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>384442.397</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2053.70535</v>
+        <v>83297.14191999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1673.34622</v>
+        <v>97813.41257000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3119.363679999999</v>
+        <v>149854.01658</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1395.36404</v>
+        <v>61258.34937</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>577.4151800000001</v>
+        <v>133315.50231</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>816.1611200000001</v>
+        <v>113103.33436</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>603.56448</v>
+        <v>174955.64652</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>786.42913</v>
+        <v>128699.1266</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>809.2940900000001</v>
+        <v>29641.54364</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2370.15316</v>
+        <v>19584.70694</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1802.40504</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>8843.508629999998</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>55173.557</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>21433.99899</v>
+        <v>29699.55169</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>41787.60662</v>
+        <v>72836.86193</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>34241.58465</v>
+        <v>-140901.02713</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>19479.33799</v>
+        <v>97570.95697</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>27876.77312</v>
+        <v>58379.75342999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>21855.12847</v>
+        <v>148950.1181</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1888.54205</v>
+        <v>179828.66121</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-17452.39429</v>
+        <v>-55223.15326</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-107.2536499999999</v>
+        <v>320466.49051</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>57892.11739</v>
+        <v>-30599.53992</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>17463.08549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-85323.97037</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>243884.463</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>12160.59396</v>
+        <v>23501.02034</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>15655.54831</v>
+        <v>31355.74598</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>21508.24557</v>
+        <v>31990.85813</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>15437.07212</v>
+        <v>24748.98062</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>17095.81198</v>
+        <v>49358.08714</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>17522.83663</v>
+        <v>39174.69028</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>22828.88101</v>
+        <v>33310.0338</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>22183.67219</v>
+        <v>144943.79905</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>29672.44798</v>
+        <v>45616.78094999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>50389.47444</v>
+        <v>103661.4132</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>52984.25595999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>101159.72669</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>124381.002</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>406.21338</v>
+        <v>436.26183</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>157.73889</v>
+        <v>857.76126</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>118.75482</v>
+        <v>282.96025</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>582.8937999999999</v>
+        <v>2055.91739</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>226.76037</v>
+        <v>3785.28763</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>581.6189499999999</v>
+        <v>602.6274100000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>329.01039</v>
+        <v>462.56361</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>196.4649</v>
+        <v>240.41107</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1104.58978</v>
+        <v>1253.34686</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>857.3033399999999</v>
+        <v>884.0577999999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>437.99134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>999.7937200000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5596.298</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>11754.38058</v>
+        <v>23064.75851</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>15497.80942</v>
+        <v>30497.98472</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>21389.49075</v>
+        <v>31707.89788</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>14854.17832</v>
+        <v>22693.06323</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>16869.05161</v>
+        <v>45572.79951</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>16941.21768</v>
+        <v>38572.06287</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>22499.87062</v>
+        <v>32847.47019</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>21987.20729</v>
+        <v>144703.38798</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>28567.8582</v>
+        <v>44363.43409</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>49532.17109999999</v>
+        <v>102777.3554</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>52546.26462</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>100159.93297</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>118784.704</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>14713.87547</v>
+        <v>25009.22088</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>16973.09149</v>
+        <v>33063.86249</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>134087.67765</v>
+        <v>167858.36954</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>20472.17845</v>
+        <v>30653.75337</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>28263.61979</v>
+        <v>37584.29384000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>66285.89826999999</v>
+        <v>78550.48036</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>26638.74814</v>
+        <v>51808.06264</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>78224.98943</v>
+        <v>174745.80831</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>26014.39529</v>
+        <v>63938.4866</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>121822.82178</v>
+        <v>224552.26069</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>48107.15273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>114236.51122</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>666431.451</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>34.49229</v>
+        <v>393.81929</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>89.27853</v>
+        <v>557.30291</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>93.28273999999999</v>
+        <v>255.1865</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>152.22321</v>
+        <v>177.32321</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>185.46686</v>
+        <v>962.2394400000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>140.53891</v>
+        <v>312.12986</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>239.57777</v>
+        <v>341.35781</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1839.228</v>
+        <v>2966.67658</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>266.5275</v>
+        <v>965.87042</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>471.20437</v>
+        <v>1739.76194</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>381.34411</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>566.3715800000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>5304.761</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>909.3343100000001</v>
+        <v>1008.36693</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1422.64823</v>
+        <v>2087.65468</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>11189.89387</v>
+        <v>12627.17762</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2457.17153</v>
+        <v>8006.64433</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2602.9423</v>
+        <v>2953.51376</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3194.58855</v>
+        <v>4103.32845</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2137.26175</v>
+        <v>3295.43176</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2671.29398</v>
+        <v>3461.99475</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3195.1236</v>
+        <v>5339.258599999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5287.65791</v>
+        <v>5790.29351</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3909.78182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4442.63432</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7203.447</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>13770.04887</v>
+        <v>23607.03466</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>15461.16473</v>
+        <v>30418.9049</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>122804.50104</v>
+        <v>154976.00542</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>17862.78371</v>
+        <v>22469.78583</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>25475.21063</v>
+        <v>33668.54064</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>62950.77080999999</v>
+        <v>74135.02205</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>24261.90862</v>
+        <v>48171.27307</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>73714.46745</v>
+        <v>168317.13698</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>22552.74419</v>
+        <v>57633.35758</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>116063.9595</v>
+        <v>217022.20524</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>43816.0268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>109227.50532</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>653923.243</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>18880.71748</v>
+        <v>28191.35115</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>40470.06344000001</v>
+        <v>71128.74542000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-78337.84743000001</v>
+        <v>-276768.53854</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>14444.23166</v>
+        <v>91666.18422</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>16708.96531</v>
+        <v>70153.54673</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-26907.93317</v>
+        <v>109574.32802</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-5698.40918</v>
+        <v>161330.63237</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-73493.71153</v>
+        <v>-85025.16252</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3550.79904</v>
+        <v>302144.78486</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-13541.22995</v>
+        <v>-151490.38741</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>22340.18872</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-98400.7549</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-298165.986</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>12488.6088</v>
+        <v>15265.1031</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>15094.979</v>
+        <v>19163.63385</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>16406.0013</v>
+        <v>19840.29723</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>14856.94361</v>
+        <v>17204.84881</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>17451.14288</v>
+        <v>24111.91991</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>17592.37568</v>
+        <v>22660.77695</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>18737.94821</v>
+        <v>28334.57232</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>18650.339</v>
+        <v>32310.5082</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>18751.58759</v>
+        <v>31862.88919</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>48149.78961</v>
+        <v>75046.72838</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>46978.45557</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>78241.33815000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>149011.76</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>6392.108679999999</v>
+        <v>12926.24805</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>25375.08444</v>
+        <v>51965.11157</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-94743.84873</v>
+        <v>-296608.83577</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-412.7119499999997</v>
+        <v>74461.33541</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-742.1775700000003</v>
+        <v>46041.62681999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-44500.30885</v>
+        <v>86913.55106999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-24436.35739</v>
+        <v>132996.06005</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-92144.05053000001</v>
+        <v>-117335.67072</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-15200.78855</v>
+        <v>270281.8956699999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-61691.01956</v>
+        <v>-226537.11579</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-24638.26685</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-176642.09305</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-447177.746</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>6310</v>
+        <v>6591</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>6339</v>
+        <v>6696</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7025</v>
+        <v>7404</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7992</v>
+        <v>8433</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>9360</v>
+        <v>9906</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>9486</v>
+        <v>10141</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>9189</v>
+        <v>10011</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9253</v>
+        <v>10138</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>9181</v>
+        <v>10105</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>10327</v>
+        <v>11039</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10417</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>11473</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>11798</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>